--- a/data/trans_bre/P16A10-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.228513333515475</v>
+        <v>-3.503336543642496</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.05239550171477569</v>
+        <v>-0.0772596578959561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.746351048204004</v>
+        <v>-1.61259764230214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.023771290844623</v>
+        <v>-2.552494277160004</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3065957993086463</v>
+        <v>-0.3244655318431001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01310034074455669</v>
+        <v>-0.02043688507685969</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2600329986661681</v>
+        <v>-0.2577290137594573</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3147200180035762</v>
+        <v>-0.2729654123483872</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.66998295869136</v>
+        <v>2.446909171041383</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.213653122828814</v>
+        <v>4.08452431003177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.258437569461486</v>
+        <v>2.363443411923291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.827861068954216</v>
+        <v>2.937494025904616</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3513164155976332</v>
+        <v>0.3312179590509647</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.123896697056852</v>
+        <v>1.041950165487684</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.463482459336535</v>
+        <v>0.5243493619829994</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4651879109722364</v>
+        <v>0.4975208661723211</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.666476134151584</v>
+        <v>-2.746818840927028</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.789796574927077</v>
+        <v>-2.685870423021468</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.873518429146361</v>
+        <v>-2.942635845373207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.818374693361898</v>
+        <v>-2.965680238763197</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4073919915079837</v>
+        <v>-0.4041804562761462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4464679811855038</v>
+        <v>-0.4338841309328689</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3833952244180899</v>
+        <v>-0.3978206639496881</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3389746081917394</v>
+        <v>-0.3555028764227782</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9639215534157117</v>
+        <v>1.097145879144727</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.184419810973202</v>
+        <v>1.069903545327315</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.340284097417809</v>
+        <v>1.386684164302983</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8475697362506989</v>
+        <v>0.9140562681933072</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1957097659636658</v>
+        <v>0.245044997802396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3116592887892798</v>
+        <v>0.2846389363178845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2715338596347558</v>
+        <v>0.2853209637335927</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1389404329546951</v>
+        <v>0.147998037765963</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.463474224394564</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5232899059922649</v>
+        <v>0.5232899059922657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.04624303040307276</v>
@@ -849,7 +849,7 @@
         <v>-0.3774982331743402</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1143712491822542</v>
+        <v>0.1143712491822543</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.826905420994353</v>
+        <v>-1.732301679484048</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.967917700229311</v>
+        <v>-5.017785249296803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.964069366777071</v>
+        <v>-4.76309014642381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.14869400442319</v>
+        <v>-1.082388226426351</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.437124256933498</v>
+        <v>-0.4234665176332966</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6157591243573811</v>
+        <v>-0.6158670346191206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6381678718243338</v>
+        <v>-0.6239175373104664</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2164212880507059</v>
+        <v>-0.2055128536000226</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.248103165018116</v>
+        <v>1.332365158276658</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5626907485604584</v>
+        <v>-0.3814353103553991</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1316026991876007</v>
+        <v>-0.197201309171199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.079564776508449</v>
+        <v>2.257375889532447</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4943572343102647</v>
+        <v>0.4973713032958377</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.09729706003349711</v>
+        <v>-0.0357048697279587</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.0067014167532146</v>
+        <v>-0.03304841010590961</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5513299699616114</v>
+        <v>0.5843631075025797</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.8472067498059885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.082198224948654</v>
+        <v>-2.082198224948657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04928185936382077</v>
@@ -949,7 +949,7 @@
         <v>0.1598020924082318</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4132030293775602</v>
+        <v>-0.4132030293775606</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.661507724719931</v>
+        <v>-2.471207342592106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.646130347107419</v>
+        <v>-4.31456815456354</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.261574527120769</v>
+        <v>-2.497321221376704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.611530052869314</v>
+        <v>-3.567811105690157</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5689372034493325</v>
+        <v>-0.5289519276549529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7804968915246832</v>
+        <v>-0.7519904548860442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3311881455933041</v>
+        <v>-0.3818882238979117</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6064427010350543</v>
+        <v>-0.6116836847659588</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.805103189013724</v>
+        <v>2.88996127629419</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5072251645497146</v>
+        <v>0.6234859584657918</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.047798747402207</v>
+        <v>3.820687355696263</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.6054242164836147</v>
+        <v>-0.630770868693223</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.191905046261138</v>
+        <v>1.206260470993677</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2631492325171677</v>
+        <v>0.3649742514685986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.068947066056383</v>
+        <v>0.9615415244931746</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1387451975555747</v>
+        <v>-0.1546347034169987</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.5849271747609491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.5238066297263311</v>
+        <v>-0.5238066297263297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01958400918998389</v>
@@ -1049,7 +1049,7 @@
         <v>-0.09797072812458407</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.08960803931599678</v>
+        <v>-0.08960803931599658</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.004569255607635</v>
+        <v>-0.9065774160499163</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.630598055957179</v>
+        <v>-1.608716369362802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.672445857422985</v>
+        <v>-1.739343151472783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.484926285944427</v>
+        <v>-1.473620205509484</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1781141068511093</v>
+        <v>-0.1613097551131072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2722958086350988</v>
+        <v>-0.2812169075847761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2655553532969855</v>
+        <v>-0.2631844970188333</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2303939564020661</v>
+        <v>-0.2329062039887943</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.100370560580533</v>
+        <v>1.314902101313837</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5274433474241303</v>
+        <v>0.4948459001239486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6732961016295403</v>
+        <v>0.6536012214385032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4136868302912865</v>
+        <v>0.4125948098272003</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.233917082378638</v>
+        <v>0.2819639247737674</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1122353881509651</v>
+        <v>0.1008249843168819</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1206649268224765</v>
+        <v>0.1231772508215008</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.07799433333025493</v>
+        <v>0.07761777683449106</v>
       </c>
     </row>
     <row r="19">
